--- a/data/pca/factorExposure/factorExposure_2014-09-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.007308888888568683</v>
+        <v>0.01908353046505775</v>
       </c>
       <c r="C2">
-        <v>-0.1160913589715253</v>
+        <v>0.07456168996333322</v>
       </c>
       <c r="D2">
-        <v>0.002304947534074788</v>
+        <v>0.03065741122484083</v>
       </c>
       <c r="E2">
-        <v>-0.2349073247585984</v>
+        <v>-0.1017929685012305</v>
       </c>
       <c r="F2">
-        <v>-0.06282811480771501</v>
+        <v>-0.1232628217640009</v>
       </c>
       <c r="G2">
-        <v>-0.06497327946663706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.008530781207535601</v>
+      </c>
+      <c r="H2">
+        <v>-0.05916466528256962</v>
+      </c>
+      <c r="I2">
+        <v>0.001142937696185187</v>
+      </c>
+      <c r="J2">
+        <v>-0.01835930140164382</v>
+      </c>
+      <c r="K2">
+        <v>-0.2045993148205859</v>
+      </c>
+      <c r="L2">
+        <v>-0.1563273123984806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.0170842437459884</v>
+        <v>0.01776624421559624</v>
       </c>
       <c r="C4">
-        <v>-0.1608243139597522</v>
+        <v>0.1434661179312414</v>
       </c>
       <c r="D4">
-        <v>0.003923187206272533</v>
+        <v>0.05969984027001446</v>
       </c>
       <c r="E4">
-        <v>-0.06997684214546442</v>
+        <v>0.007188933704514065</v>
       </c>
       <c r="F4">
-        <v>0.06719659897656849</v>
+        <v>-0.07329553605037302</v>
       </c>
       <c r="G4">
-        <v>-0.02694613426914015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01348151938365921</v>
+      </c>
+      <c r="H4">
+        <v>-0.09673385328561578</v>
+      </c>
+      <c r="I4">
+        <v>0.07427299767353397</v>
+      </c>
+      <c r="J4">
+        <v>-0.08196741010704604</v>
+      </c>
+      <c r="K4">
+        <v>-0.1610267034589216</v>
+      </c>
+      <c r="L4">
+        <v>-0.005328189274156524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.02732303722945991</v>
+        <v>0.03895943495356086</v>
       </c>
       <c r="C6">
-        <v>-0.08040631411557687</v>
+        <v>0.08814860577191137</v>
       </c>
       <c r="D6">
-        <v>0.05347618183331362</v>
+        <v>0.03004713596266672</v>
       </c>
       <c r="E6">
-        <v>-0.0648840264307784</v>
+        <v>-0.04569072506616724</v>
       </c>
       <c r="F6">
-        <v>0.01119114978536449</v>
+        <v>-0.01733065043234811</v>
       </c>
       <c r="G6">
-        <v>0.009858239400667561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0413385941393714</v>
+      </c>
+      <c r="H6">
+        <v>-0.03514426370329982</v>
+      </c>
+      <c r="I6">
+        <v>-0.01510943112811007</v>
+      </c>
+      <c r="J6">
+        <v>0.08992988278040756</v>
+      </c>
+      <c r="K6">
+        <v>-0.0841659580455171</v>
+      </c>
+      <c r="L6">
+        <v>0.03564944789420633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.003372604775305561</v>
+        <v>0.01821605299305272</v>
       </c>
       <c r="C7">
-        <v>-0.06803456845143575</v>
+        <v>0.0754218022261597</v>
       </c>
       <c r="D7">
-        <v>0.03020297648945358</v>
+        <v>0.02730703642178789</v>
       </c>
       <c r="E7">
-        <v>-0.02648270394102068</v>
+        <v>0.01388377058971102</v>
       </c>
       <c r="F7">
-        <v>0.04147493681676899</v>
+        <v>-0.001428094391291644</v>
       </c>
       <c r="G7">
-        <v>0.007572580937547031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03659901913330927</v>
+      </c>
+      <c r="H7">
+        <v>-0.1008005854387387</v>
+      </c>
+      <c r="I7">
+        <v>0.02034026549420413</v>
+      </c>
+      <c r="J7">
+        <v>-0.002578145120261536</v>
+      </c>
+      <c r="K7">
+        <v>-0.04391507014760266</v>
+      </c>
+      <c r="L7">
+        <v>-0.02341328318978834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.008351160693903896</v>
+        <v>-0.0005704562989917222</v>
       </c>
       <c r="C8">
-        <v>-0.07101040840605151</v>
+        <v>0.06117238547564704</v>
       </c>
       <c r="D8">
-        <v>0.02769691835037226</v>
+        <v>0.04234098352930621</v>
       </c>
       <c r="E8">
-        <v>-0.08560052137048543</v>
+        <v>-0.0245782709493904</v>
       </c>
       <c r="F8">
-        <v>0.03061501798093072</v>
+        <v>-0.05597594759253081</v>
       </c>
       <c r="G8">
-        <v>-0.03105178753760707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01459470427174923</v>
+      </c>
+      <c r="H8">
+        <v>-0.05767311950183714</v>
+      </c>
+      <c r="I8">
+        <v>0.01649276834734626</v>
+      </c>
+      <c r="J8">
+        <v>-0.005454812296612284</v>
+      </c>
+      <c r="K8">
+        <v>-0.00389284063790289</v>
+      </c>
+      <c r="L8">
+        <v>-0.00628052537774154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.009266126592742698</v>
+        <v>0.01316812939628149</v>
       </c>
       <c r="C9">
-        <v>-0.1233584374253571</v>
+        <v>0.1037012367600883</v>
       </c>
       <c r="D9">
-        <v>0.02993633307813895</v>
+        <v>0.04254433225044549</v>
       </c>
       <c r="E9">
-        <v>-0.02869494009702326</v>
+        <v>-0.003568556434989675</v>
       </c>
       <c r="F9">
-        <v>0.03053578506782377</v>
+        <v>-0.03046023842983335</v>
       </c>
       <c r="G9">
-        <v>0.02524306672644956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.001071574160620904</v>
+      </c>
+      <c r="H9">
+        <v>-0.09284420081666567</v>
+      </c>
+      <c r="I9">
+        <v>0.06041406659862832</v>
+      </c>
+      <c r="J9">
+        <v>-0.02973164641302048</v>
+      </c>
+      <c r="K9">
+        <v>-0.07115300957684921</v>
+      </c>
+      <c r="L9">
+        <v>0.01696371893648977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.2749504951590377</v>
+        <v>0.2471182370879159</v>
       </c>
       <c r="C10">
-        <v>0.08594120698854485</v>
+        <v>-0.09387938663167607</v>
       </c>
       <c r="D10">
-        <v>-0.02306425159770679</v>
+        <v>-0.003933608654038607</v>
       </c>
       <c r="E10">
-        <v>0.03756134045384499</v>
+        <v>-0.01363131888655958</v>
       </c>
       <c r="F10">
-        <v>0.005053463615670913</v>
+        <v>0.01599497001887765</v>
       </c>
       <c r="G10">
-        <v>0.01800273198996778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01396333793758288</v>
+      </c>
+      <c r="H10">
+        <v>-0.03466102909129595</v>
+      </c>
+      <c r="I10">
+        <v>-0.004667413900635068</v>
+      </c>
+      <c r="J10">
+        <v>-0.1819154631321079</v>
+      </c>
+      <c r="K10">
+        <v>0.1044956934040721</v>
+      </c>
+      <c r="L10">
+        <v>0.002418262673568541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.00748320700145645</v>
+        <v>0.01654062427852862</v>
       </c>
       <c r="C11">
-        <v>-0.07242080387407664</v>
+        <v>0.08468287659406197</v>
       </c>
       <c r="D11">
-        <v>0.02446125734411473</v>
+        <v>0.03761180302110217</v>
       </c>
       <c r="E11">
-        <v>0.01796968964910534</v>
+        <v>0.00824482463741058</v>
       </c>
       <c r="F11">
-        <v>0.01898549871120541</v>
+        <v>0.01341264621584046</v>
       </c>
       <c r="G11">
-        <v>0.04007794015142171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.007200837884987429</v>
+      </c>
+      <c r="H11">
+        <v>-0.03173279528155033</v>
+      </c>
+      <c r="I11">
+        <v>0.02165390729127923</v>
+      </c>
+      <c r="J11">
+        <v>0.0167985457616252</v>
+      </c>
+      <c r="K11">
+        <v>0.02206726257110439</v>
+      </c>
+      <c r="L11">
+        <v>0.05815306838250647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.006551820089615699</v>
+        <v>0.0166343927722666</v>
       </c>
       <c r="C12">
-        <v>-0.05742157146393004</v>
+        <v>0.05966669978130537</v>
       </c>
       <c r="D12">
-        <v>0.02981203239365947</v>
+        <v>0.02211687511908371</v>
       </c>
       <c r="E12">
-        <v>0.01273244753780196</v>
+        <v>-0.01437420994590562</v>
       </c>
       <c r="F12">
-        <v>-0.008324408838342503</v>
+        <v>0.02138328604453013</v>
       </c>
       <c r="G12">
-        <v>0.06868614470339356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.02532690978828603</v>
+      </c>
+      <c r="H12">
+        <v>-0.03066705356513574</v>
+      </c>
+      <c r="I12">
+        <v>0.01830592812700444</v>
+      </c>
+      <c r="J12">
+        <v>0.01088147459671517</v>
+      </c>
+      <c r="K12">
+        <v>0.01021605066620351</v>
+      </c>
+      <c r="L12">
+        <v>0.05409698733491201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.01684307775364242</v>
+        <v>0.006338675303253829</v>
       </c>
       <c r="C13">
-        <v>-0.133543320109503</v>
+        <v>0.1223837069230012</v>
       </c>
       <c r="D13">
-        <v>0.05106007517761299</v>
+        <v>0.04083445187611957</v>
       </c>
       <c r="E13">
-        <v>-0.05145348463489246</v>
+        <v>-0.1575253516452866</v>
       </c>
       <c r="F13">
-        <v>-0.0003597200367611292</v>
+        <v>-0.0535051589277611</v>
       </c>
       <c r="G13">
-        <v>0.1731486592558541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1094817704179981</v>
+      </c>
+      <c r="H13">
+        <v>-0.1325337196350734</v>
+      </c>
+      <c r="I13">
+        <v>-0.1948910380056322</v>
+      </c>
+      <c r="J13">
+        <v>-0.1095311450359329</v>
+      </c>
+      <c r="K13">
+        <v>0.2072091390222228</v>
+      </c>
+      <c r="L13">
+        <v>-0.06173704528574087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.008476390263307999</v>
+        <v>0.01908335140513671</v>
       </c>
       <c r="C14">
-        <v>-0.07124613060042827</v>
+        <v>0.07604995716011136</v>
       </c>
       <c r="D14">
-        <v>0.0273514088788156</v>
+        <v>0.04939908371183212</v>
       </c>
       <c r="E14">
-        <v>-0.03431506958591399</v>
+        <v>-0.04821586309878607</v>
       </c>
       <c r="F14">
-        <v>-0.01199500878877289</v>
+        <v>0.02237388033896691</v>
       </c>
       <c r="G14">
-        <v>0.05971654800799446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.06649137742429477</v>
+      </c>
+      <c r="H14">
+        <v>-0.2105606228382007</v>
+      </c>
+      <c r="I14">
+        <v>-0.0128759936884897</v>
+      </c>
+      <c r="J14">
+        <v>0.05794881115618841</v>
+      </c>
+      <c r="K14">
+        <v>0.1000956585756249</v>
+      </c>
+      <c r="L14">
+        <v>-0.150480894531024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.007847196997300623</v>
+        <v>0.002515558439225715</v>
       </c>
       <c r="C15">
-        <v>-0.09975739788892021</v>
+        <v>0.08173353738447721</v>
       </c>
       <c r="D15">
-        <v>0.03839303969942386</v>
+        <v>0.03562450899160459</v>
       </c>
       <c r="E15">
-        <v>-0.05705810211775916</v>
+        <v>-0.008881232187216875</v>
       </c>
       <c r="F15">
-        <v>0.03127394609556978</v>
+        <v>-0.02116046536154265</v>
       </c>
       <c r="G15">
-        <v>0.02732926712384318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02890148729149132</v>
+      </c>
+      <c r="H15">
+        <v>-0.09342643920668206</v>
+      </c>
+      <c r="I15">
+        <v>0.02951364299249749</v>
+      </c>
+      <c r="J15">
+        <v>0.01732285654152325</v>
+      </c>
+      <c r="K15">
+        <v>0.05301777939704477</v>
+      </c>
+      <c r="L15">
+        <v>-0.02976859208676732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.01011246876572337</v>
+        <v>0.01544799637764703</v>
       </c>
       <c r="C16">
-        <v>-0.06455482103223646</v>
+        <v>0.06432601230391821</v>
       </c>
       <c r="D16">
-        <v>0.01691933378433801</v>
+        <v>0.02613187382018818</v>
       </c>
       <c r="E16">
-        <v>0.01279322786333951</v>
+        <v>0.00328485594056605</v>
       </c>
       <c r="F16">
-        <v>-0.001278672221220463</v>
+        <v>0.01024024499747347</v>
       </c>
       <c r="G16">
-        <v>0.03220582678507886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.006778722218683123</v>
+      </c>
+      <c r="H16">
+        <v>-0.02476860451857919</v>
+      </c>
+      <c r="I16">
+        <v>0.01935235100526138</v>
+      </c>
+      <c r="J16">
+        <v>0.01192156161216857</v>
+      </c>
+      <c r="K16">
+        <v>0.005158237598158937</v>
+      </c>
+      <c r="L16">
+        <v>0.04120835101105343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.01390539810776868</v>
+        <v>0.01438387717402176</v>
       </c>
       <c r="C20">
-        <v>-0.09039289504059486</v>
+        <v>0.08591794299423981</v>
       </c>
       <c r="D20">
-        <v>0.01754145861182877</v>
+        <v>0.02511280798397974</v>
       </c>
       <c r="E20">
-        <v>0.01024625488365978</v>
+        <v>0.02463037875218627</v>
       </c>
       <c r="F20">
-        <v>0.05203579672588173</v>
+        <v>0.003010427985113367</v>
       </c>
       <c r="G20">
-        <v>0.08144065414371102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.03669132258404212</v>
+      </c>
+      <c r="H20">
+        <v>-0.07260064786080522</v>
+      </c>
+      <c r="I20">
+        <v>0.02174559235338169</v>
+      </c>
+      <c r="J20">
+        <v>0.007006759747736187</v>
+      </c>
+      <c r="K20">
+        <v>-0.01264261261752035</v>
+      </c>
+      <c r="L20">
+        <v>0.01226712726288419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-8.009307464363874e-05</v>
+        <v>0.01411022085767205</v>
       </c>
       <c r="C21">
-        <v>-0.09088213350346624</v>
+        <v>0.07170415880362213</v>
       </c>
       <c r="D21">
-        <v>-0.03026017452662484</v>
+        <v>0.02097903719473772</v>
       </c>
       <c r="E21">
-        <v>-0.04721535021243672</v>
+        <v>-0.08960779286856287</v>
       </c>
       <c r="F21">
-        <v>-0.05139456509112978</v>
+        <v>0.02102738684958241</v>
       </c>
       <c r="G21">
-        <v>0.05101638582742464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0104992918216728</v>
+      </c>
+      <c r="H21">
+        <v>-0.1395548857689707</v>
+      </c>
+      <c r="I21">
+        <v>-0.05022345845461718</v>
+      </c>
+      <c r="J21">
+        <v>-0.003274324237525621</v>
+      </c>
+      <c r="K21">
+        <v>0.04926322284805019</v>
+      </c>
+      <c r="L21">
+        <v>0.01336561268205214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.04050500888976078</v>
+        <v>0.006629660086241189</v>
       </c>
       <c r="C22">
-        <v>-0.2010149712695349</v>
+        <v>0.1744192327875864</v>
       </c>
       <c r="D22">
-        <v>-0.08256317474666086</v>
+        <v>0.01564809408936705</v>
       </c>
       <c r="E22">
-        <v>-0.296140938284907</v>
+        <v>-0.07566226261923148</v>
       </c>
       <c r="F22">
-        <v>0.1748262350528896</v>
+        <v>-0.5323621342953058</v>
       </c>
       <c r="G22">
-        <v>-0.1857293983073431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.01067270067132347</v>
+      </c>
+      <c r="H22">
+        <v>0.287429946883188</v>
+      </c>
+      <c r="I22">
+        <v>-0.02730603487546166</v>
+      </c>
+      <c r="J22">
+        <v>0.01466162389485963</v>
+      </c>
+      <c r="K22">
+        <v>0.218354108000687</v>
+      </c>
+      <c r="L22">
+        <v>0.04182183266062254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.03999090358940915</v>
+        <v>0.01169364133820707</v>
       </c>
       <c r="C23">
-        <v>-0.2015534574785659</v>
+        <v>0.1782442828596775</v>
       </c>
       <c r="D23">
-        <v>-0.08232969220540219</v>
+        <v>0.01482309235695269</v>
       </c>
       <c r="E23">
-        <v>-0.292266696838925</v>
+        <v>-0.07391564104464793</v>
       </c>
       <c r="F23">
-        <v>0.1726696071188616</v>
+        <v>-0.5138388806102235</v>
       </c>
       <c r="G23">
-        <v>-0.1850669521872936</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.0125605880077753</v>
+      </c>
+      <c r="H23">
+        <v>0.2661999820473173</v>
+      </c>
+      <c r="I23">
+        <v>-0.02023614216439209</v>
+      </c>
+      <c r="J23">
+        <v>0.01700236987811411</v>
+      </c>
+      <c r="K23">
+        <v>0.204981149326112</v>
+      </c>
+      <c r="L23">
+        <v>0.04661893040058458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.004101222419600396</v>
+        <v>0.01667628677933753</v>
       </c>
       <c r="C24">
-        <v>-0.06695326420057239</v>
+        <v>0.06956772752812321</v>
       </c>
       <c r="D24">
-        <v>0.03782141306594674</v>
+        <v>0.03858877013771831</v>
       </c>
       <c r="E24">
-        <v>0.01311885260743369</v>
+        <v>0.006204189965517139</v>
       </c>
       <c r="F24">
-        <v>0.0134653010629188</v>
+        <v>0.0103417965759017</v>
       </c>
       <c r="G24">
-        <v>0.05387411323867588</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02244084754098383</v>
+      </c>
+      <c r="H24">
+        <v>-0.04352279847039458</v>
+      </c>
+      <c r="I24">
+        <v>0.02499776751679332</v>
+      </c>
+      <c r="J24">
+        <v>0.009640422867759971</v>
+      </c>
+      <c r="K24">
+        <v>0.01345627199121342</v>
+      </c>
+      <c r="L24">
+        <v>0.0468333752344773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.007640289485027387</v>
+        <v>0.02078810675805999</v>
       </c>
       <c r="C25">
-        <v>-0.06970443570556245</v>
+        <v>0.0716366708471695</v>
       </c>
       <c r="D25">
-        <v>0.01626962255159753</v>
+        <v>0.02870614930390395</v>
       </c>
       <c r="E25">
-        <v>0.01966774477572987</v>
+        <v>0.007246793901297073</v>
       </c>
       <c r="F25">
-        <v>0.01266103987368195</v>
+        <v>0.007542365388303105</v>
       </c>
       <c r="G25">
-        <v>0.04951625115120691</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.01610435020688225</v>
+      </c>
+      <c r="H25">
+        <v>-0.03796833584090917</v>
+      </c>
+      <c r="I25">
+        <v>0.02213584341864227</v>
+      </c>
+      <c r="J25">
+        <v>3.904443351998795e-05</v>
+      </c>
+      <c r="K25">
+        <v>0.02676519446710574</v>
+      </c>
+      <c r="L25">
+        <v>0.03407615395446129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.0068212971073238</v>
+        <v>0.02486607570194769</v>
       </c>
       <c r="C26">
-        <v>-0.06620504334500446</v>
+        <v>0.06126019873656915</v>
       </c>
       <c r="D26">
-        <v>0.05450428030758538</v>
+        <v>0.06367182486425718</v>
       </c>
       <c r="E26">
-        <v>-0.009084156470219934</v>
+        <v>0.006334347072716254</v>
       </c>
       <c r="F26">
-        <v>-0.01527395041230815</v>
+        <v>0.01934870049974998</v>
       </c>
       <c r="G26">
-        <v>0.03525682086974129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.00904058144092487</v>
+      </c>
+      <c r="H26">
+        <v>-0.101279309175129</v>
+      </c>
+      <c r="I26">
+        <v>0.06846043504502416</v>
+      </c>
+      <c r="J26">
+        <v>0.009580890988722975</v>
+      </c>
+      <c r="K26">
+        <v>-0.1005629880488667</v>
+      </c>
+      <c r="L26">
+        <v>0.06628004587747385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.373681650820861</v>
+        <v>0.3172094285794037</v>
       </c>
       <c r="C28">
-        <v>0.09892494369403629</v>
+        <v>-0.1049007779850605</v>
       </c>
       <c r="D28">
-        <v>-0.02670028103061456</v>
+        <v>-0.03263339068387052</v>
       </c>
       <c r="E28">
-        <v>0.09125781865966749</v>
+        <v>-0.0288216495627477</v>
       </c>
       <c r="F28">
-        <v>-0.08462075937322751</v>
+        <v>-0.03143687753632075</v>
       </c>
       <c r="G28">
-        <v>-0.01111377824301042</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1321001402573514</v>
+      </c>
+      <c r="H28">
+        <v>-0.05381615261238589</v>
+      </c>
+      <c r="I28">
+        <v>-0.1068625051291234</v>
+      </c>
+      <c r="J28">
+        <v>-0.1831060584040115</v>
+      </c>
+      <c r="K28">
+        <v>-0.001525346810887992</v>
+      </c>
+      <c r="L28">
+        <v>0.02069242988113991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.007521793810797601</v>
+        <v>0.01356974004246446</v>
       </c>
       <c r="C29">
-        <v>-0.07541133348409175</v>
+        <v>0.08145128225105494</v>
       </c>
       <c r="D29">
-        <v>0.04172594083028085</v>
+        <v>0.05437710639036633</v>
       </c>
       <c r="E29">
-        <v>-0.03250653594894876</v>
+        <v>-0.05879631343885379</v>
       </c>
       <c r="F29">
-        <v>0.002833256321539647</v>
+        <v>0.01887657904827334</v>
       </c>
       <c r="G29">
-        <v>0.09002169968401995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1043719659900327</v>
+      </c>
+      <c r="H29">
+        <v>-0.2984632006273555</v>
+      </c>
+      <c r="I29">
+        <v>-0.02748855038441504</v>
+      </c>
+      <c r="J29">
+        <v>0.05961939179604896</v>
+      </c>
+      <c r="K29">
+        <v>0.1530060052329431</v>
+      </c>
+      <c r="L29">
+        <v>-0.285905502219045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.03289119245359266</v>
+        <v>0.03069835152759157</v>
       </c>
       <c r="C30">
-        <v>-0.1784112340484738</v>
+        <v>0.14447661990724</v>
       </c>
       <c r="D30">
-        <v>0.06124461401638426</v>
+        <v>0.05771485824471639</v>
       </c>
       <c r="E30">
-        <v>-0.04326120825849265</v>
+        <v>-0.00775487725852336</v>
       </c>
       <c r="F30">
-        <v>0.05288365726602784</v>
+        <v>-0.06491119872918288</v>
       </c>
       <c r="G30">
-        <v>-0.004897569143978564</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01187639159622897</v>
+      </c>
+      <c r="H30">
+        <v>-0.03285622408457419</v>
+      </c>
+      <c r="I30">
+        <v>0.04103619702429732</v>
+      </c>
+      <c r="J30">
+        <v>0.01497781444338054</v>
+      </c>
+      <c r="K30">
+        <v>-0.08793187196040124</v>
+      </c>
+      <c r="L30">
+        <v>0.02416392330027459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.004367084961557111</v>
+        <v>0.0130939835063065</v>
       </c>
       <c r="C31">
-        <v>-0.06282509002129633</v>
+        <v>0.08176792612165733</v>
       </c>
       <c r="D31">
-        <v>0.0353676511778338</v>
+        <v>0.04101061820868848</v>
       </c>
       <c r="E31">
-        <v>0.01704624790595884</v>
+        <v>-0.002132030037243934</v>
       </c>
       <c r="F31">
-        <v>-0.009307056242445206</v>
+        <v>0.002856877536709014</v>
       </c>
       <c r="G31">
-        <v>0.01406604794647048</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02869235913461467</v>
+      </c>
+      <c r="H31">
+        <v>-0.03613240638750983</v>
+      </c>
+      <c r="I31">
+        <v>0.02463215395729912</v>
+      </c>
+      <c r="J31">
+        <v>0.007132167013660028</v>
+      </c>
+      <c r="K31">
+        <v>0.04205228668357158</v>
+      </c>
+      <c r="L31">
+        <v>0.04200158795767284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.01972627947139508</v>
+        <v>0.02194210623421559</v>
       </c>
       <c r="C32">
-        <v>-0.08439431827779101</v>
+        <v>0.05530005165990023</v>
       </c>
       <c r="D32">
-        <v>-0.005912203852938743</v>
+        <v>0.01740437982972882</v>
       </c>
       <c r="E32">
-        <v>-0.1623833939867267</v>
+        <v>-0.1001214826877117</v>
       </c>
       <c r="F32">
-        <v>0.0116812841977011</v>
+        <v>-0.06565081664782435</v>
       </c>
       <c r="G32">
-        <v>0.05994436898076948</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0603903320951814</v>
+      </c>
+      <c r="H32">
+        <v>-0.1726214513246694</v>
+      </c>
+      <c r="I32">
+        <v>-0.1835220832327054</v>
+      </c>
+      <c r="J32">
+        <v>-0.1847347761195103</v>
+      </c>
+      <c r="K32">
+        <v>0.02478506086563458</v>
+      </c>
+      <c r="L32">
+        <v>-0.1632192574659861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.01577987855682698</v>
+        <v>0.01758820921033767</v>
       </c>
       <c r="C33">
-        <v>-0.09756390113303375</v>
+        <v>0.108227000291002</v>
       </c>
       <c r="D33">
-        <v>0.06021985545562196</v>
+        <v>0.04827404121277602</v>
       </c>
       <c r="E33">
-        <v>-0.01003149055324608</v>
+        <v>0.003356494436118203</v>
       </c>
       <c r="F33">
-        <v>0.003746606276893461</v>
+        <v>-0.01331186700815056</v>
       </c>
       <c r="G33">
-        <v>0.0295497031768492</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02174656468961392</v>
+      </c>
+      <c r="H33">
+        <v>-0.05994143105967061</v>
+      </c>
+      <c r="I33">
+        <v>0.01838938246849145</v>
+      </c>
+      <c r="J33">
+        <v>-0.02781217266760029</v>
+      </c>
+      <c r="K33">
+        <v>0.009620831596411451</v>
+      </c>
+      <c r="L33">
+        <v>0.02443428537811462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.00281351295669187</v>
+        <v>0.01620382690157098</v>
       </c>
       <c r="C34">
-        <v>-0.05369668061342744</v>
+        <v>0.05148721136779698</v>
       </c>
       <c r="D34">
-        <v>0.02072500818599014</v>
+        <v>0.01989093412056067</v>
       </c>
       <c r="E34">
-        <v>-0.001110986297526565</v>
+        <v>-0.001919963807494906</v>
       </c>
       <c r="F34">
-        <v>-0.007886733910439479</v>
+        <v>0.01210757157567285</v>
       </c>
       <c r="G34">
-        <v>0.0411970418827348</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01687791502385556</v>
+      </c>
+      <c r="H34">
+        <v>-0.009176088598835909</v>
+      </c>
+      <c r="I34">
+        <v>0.02482904050378754</v>
+      </c>
+      <c r="J34">
+        <v>0.004392811210830089</v>
+      </c>
+      <c r="K34">
+        <v>0.01071619057224288</v>
+      </c>
+      <c r="L34">
+        <v>0.04215392052465817</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.003165180622475668</v>
+        <v>0.009758838965247301</v>
       </c>
       <c r="C35">
-        <v>-0.02140832772701236</v>
+        <v>0.04195266689635488</v>
       </c>
       <c r="D35">
-        <v>0.007172976238774831</v>
+        <v>0.0215418432315241</v>
       </c>
       <c r="E35">
-        <v>-0.01023256315043788</v>
+        <v>-0.01772744950392009</v>
       </c>
       <c r="F35">
-        <v>0.007187857691601892</v>
+        <v>0.001937254389536302</v>
       </c>
       <c r="G35">
-        <v>0.02598320384343961</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04100107971971938</v>
+      </c>
+      <c r="H35">
+        <v>-0.1534973333113007</v>
+      </c>
+      <c r="I35">
+        <v>0.007688384414992742</v>
+      </c>
+      <c r="J35">
+        <v>0.008703687466842398</v>
+      </c>
+      <c r="K35">
+        <v>0.1362323673974161</v>
+      </c>
+      <c r="L35">
+        <v>-0.1496676656367637</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.005172408640291022</v>
+        <v>0.01560740148804275</v>
       </c>
       <c r="C36">
-        <v>-0.05456828822142658</v>
+        <v>0.05039643407923609</v>
       </c>
       <c r="D36">
-        <v>0.04765257104238464</v>
+        <v>0.0488084709026397</v>
       </c>
       <c r="E36">
-        <v>-0.001999116995962293</v>
+        <v>-0.004409077588924723</v>
       </c>
       <c r="F36">
-        <v>-0.003483983428788572</v>
+        <v>0.001636308292377961</v>
       </c>
       <c r="G36">
-        <v>0.01764055211351197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.005521015021223733</v>
+      </c>
+      <c r="H36">
+        <v>-0.07377175002868026</v>
+      </c>
+      <c r="I36">
+        <v>0.02076570503047915</v>
+      </c>
+      <c r="J36">
+        <v>0.002363026226355762</v>
+      </c>
+      <c r="K36">
+        <v>-0.03253958315904999</v>
+      </c>
+      <c r="L36">
+        <v>0.06118749831173533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.03088149883587721</v>
+        <v>0.01285510509263327</v>
       </c>
       <c r="C38">
-        <v>-0.0585949323481898</v>
+        <v>0.06348925003728179</v>
       </c>
       <c r="D38">
-        <v>0.0426501628588974</v>
+        <v>0.04180089817361881</v>
       </c>
       <c r="E38">
-        <v>0.007385387503695272</v>
+        <v>0.02453061269759073</v>
       </c>
       <c r="F38">
-        <v>0.01305166090322842</v>
+        <v>-0.01817205857876503</v>
       </c>
       <c r="G38">
-        <v>0.004934810323706352</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.008140064478247413</v>
+      </c>
+      <c r="H38">
+        <v>-0.08858934195009817</v>
+      </c>
+      <c r="I38">
+        <v>-0.029399378342111</v>
+      </c>
+      <c r="J38">
+        <v>-0.05464905217317384</v>
+      </c>
+      <c r="K38">
+        <v>0.05238272117088779</v>
+      </c>
+      <c r="L38">
+        <v>0.1089283174236828</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.001133574365628767</v>
+        <v>0.01677518464383985</v>
       </c>
       <c r="C39">
-        <v>-0.1336552075599282</v>
+        <v>0.1282686058724144</v>
       </c>
       <c r="D39">
-        <v>0.03868678900575012</v>
+        <v>0.05484881591803688</v>
       </c>
       <c r="E39">
-        <v>-0.01184527959793346</v>
+        <v>-0.004625565001842322</v>
       </c>
       <c r="F39">
-        <v>0.03303408456939113</v>
+        <v>0.0009877858481079935</v>
       </c>
       <c r="G39">
-        <v>0.07012795533494302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.03919147180278498</v>
+      </c>
+      <c r="H39">
+        <v>-0.05236804197007532</v>
+      </c>
+      <c r="I39">
+        <v>0.02169579129043232</v>
+      </c>
+      <c r="J39">
+        <v>0.06411393698904379</v>
+      </c>
+      <c r="K39">
+        <v>-0.02172831531988472</v>
+      </c>
+      <c r="L39">
+        <v>0.07574195735726219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.008959974789203037</v>
+        <v>0.01362105972370956</v>
       </c>
       <c r="C40">
-        <v>-0.02732113022266962</v>
+        <v>0.05927340832818762</v>
       </c>
       <c r="D40">
-        <v>0.03099688812293117</v>
+        <v>0.03667345576865746</v>
       </c>
       <c r="E40">
-        <v>-0.1250354697520054</v>
+        <v>-0.04492521728116296</v>
       </c>
       <c r="F40">
-        <v>0.04549106043092497</v>
+        <v>-0.02803751979602792</v>
       </c>
       <c r="G40">
-        <v>0.08170217075135029</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1484232339835678</v>
+      </c>
+      <c r="H40">
+        <v>-0.04345596280356973</v>
+      </c>
+      <c r="I40">
+        <v>0.04872947193545309</v>
+      </c>
+      <c r="J40">
+        <v>-0.02239037645868366</v>
+      </c>
+      <c r="K40">
+        <v>0.2674531445171909</v>
+      </c>
+      <c r="L40">
+        <v>0.01116970199128188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.00940880126450162</v>
+        <v>0.02132833398662845</v>
       </c>
       <c r="C41">
-        <v>-0.02031562125844354</v>
+        <v>0.04728162663206809</v>
       </c>
       <c r="D41">
-        <v>0.005371631340713037</v>
+        <v>0.01672657383600119</v>
       </c>
       <c r="E41">
-        <v>0.02400921631629228</v>
+        <v>0.009139458233484244</v>
       </c>
       <c r="F41">
-        <v>-0.03350163069516583</v>
+        <v>0.02557105866480076</v>
       </c>
       <c r="G41">
-        <v>-0.0351694398330472</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01359741991960059</v>
+      </c>
+      <c r="H41">
+        <v>-0.02421019934654954</v>
+      </c>
+      <c r="I41">
+        <v>-0.007540151205979665</v>
+      </c>
+      <c r="J41">
+        <v>-0.02200896590547174</v>
+      </c>
+      <c r="K41">
+        <v>0.05964344980270809</v>
+      </c>
+      <c r="L41">
+        <v>0.01447809978584454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.002521933680725535</v>
+        <v>0.01820040804170198</v>
       </c>
       <c r="C43">
-        <v>-0.01957176048122789</v>
+        <v>0.04447120239818849</v>
       </c>
       <c r="D43">
-        <v>0.01004742748556537</v>
+        <v>0.02951631700824294</v>
       </c>
       <c r="E43">
-        <v>0.01286934593955253</v>
+        <v>0.01346647016821162</v>
       </c>
       <c r="F43">
-        <v>-0.001430472384259736</v>
+        <v>0.008955134691930515</v>
       </c>
       <c r="G43">
-        <v>-0.005182175069225481</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005209552061438516</v>
+      </c>
+      <c r="H43">
+        <v>-0.04337792364775012</v>
+      </c>
+      <c r="I43">
+        <v>-0.003179260037873935</v>
+      </c>
+      <c r="J43">
+        <v>0.005109473780218123</v>
+      </c>
+      <c r="K43">
+        <v>0.04574711339631651</v>
+      </c>
+      <c r="L43">
+        <v>0.0136802915778941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.02491579897395326</v>
+        <v>0.01414966649688632</v>
       </c>
       <c r="C44">
-        <v>-0.09709748113758274</v>
+        <v>0.09736807686394747</v>
       </c>
       <c r="D44">
-        <v>0.02315421558895094</v>
+        <v>0.05674790552682053</v>
       </c>
       <c r="E44">
-        <v>-0.04884019726048282</v>
+        <v>0.001243714395466676</v>
       </c>
       <c r="F44">
-        <v>0.05908989240344285</v>
+        <v>-0.06369435407488692</v>
       </c>
       <c r="G44">
-        <v>0.03212497235942218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04194446571291838</v>
+      </c>
+      <c r="H44">
+        <v>-0.05427472611176288</v>
+      </c>
+      <c r="I44">
+        <v>0.01837748129580372</v>
+      </c>
+      <c r="J44">
+        <v>0.0468612606449477</v>
+      </c>
+      <c r="K44">
+        <v>-0.08445120507806134</v>
+      </c>
+      <c r="L44">
+        <v>-0.01050114114524826</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2410,253 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.006443575080253275</v>
+        <v>0.004168525778567582</v>
       </c>
       <c r="C46">
-        <v>-0.07436145040359282</v>
+        <v>0.06518236617805492</v>
       </c>
       <c r="D46">
-        <v>0.04139410744292665</v>
+        <v>0.03020812998192951</v>
       </c>
       <c r="E46">
-        <v>-0.02358060658170779</v>
+        <v>-0.01068861895120776</v>
       </c>
       <c r="F46">
-        <v>0.006446569396785089</v>
+        <v>0.01875593865983318</v>
       </c>
       <c r="G46">
-        <v>0.05415765200771201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.03103539372913207</v>
+      </c>
+      <c r="H46">
+        <v>-0.1044930168273943</v>
+      </c>
+      <c r="I46">
+        <v>-0.01503090628299361</v>
+      </c>
+      <c r="J46">
+        <v>0.02454425853375159</v>
+      </c>
+      <c r="K46">
+        <v>0.07165326819436064</v>
+      </c>
+      <c r="L46">
+        <v>-0.04615565679889422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.01013987729634861</v>
+        <v>0.02405706625639713</v>
       </c>
       <c r="C47">
-        <v>-0.08720931070811311</v>
+        <v>0.08361397698205558</v>
       </c>
       <c r="D47">
-        <v>0.042607806605452</v>
+        <v>0.04524560179479019</v>
       </c>
       <c r="E47">
-        <v>0.02195549008815956</v>
+        <v>-0.004926525083765991</v>
       </c>
       <c r="F47">
-        <v>-0.03566970905704921</v>
+        <v>0.02288104978573201</v>
       </c>
       <c r="G47">
-        <v>0.05086342433278461</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.002656318057622729</v>
+      </c>
+      <c r="H47">
+        <v>-0.07062608802155969</v>
+      </c>
+      <c r="I47">
+        <v>-0.007639369575404815</v>
+      </c>
+      <c r="J47">
+        <v>-0.02098213366323274</v>
+      </c>
+      <c r="K47">
+        <v>0.04372032570180776</v>
+      </c>
+      <c r="L47">
+        <v>0.04325815991801986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.0120246761235142</v>
+        <v>0.02178427583883261</v>
       </c>
       <c r="C48">
-        <v>-0.05831887423857083</v>
+        <v>0.0534729948230298</v>
       </c>
       <c r="D48">
-        <v>0.05745504733160707</v>
+        <v>0.05526167298190744</v>
       </c>
       <c r="E48">
-        <v>0.001245294339454954</v>
+        <v>0.003648924065171262</v>
       </c>
       <c r="F48">
-        <v>-0.002565478952086112</v>
+        <v>0.007717913687821419</v>
       </c>
       <c r="G48">
-        <v>0.02016332311975308</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.007189638805030636</v>
+      </c>
+      <c r="H48">
+        <v>-0.09781019365550872</v>
+      </c>
+      <c r="I48">
+        <v>0.04425416182790457</v>
+      </c>
+      <c r="J48">
+        <v>0.006225133753725404</v>
+      </c>
+      <c r="K48">
+        <v>-0.08002370915501784</v>
+      </c>
+      <c r="L48">
+        <v>0.07262974215291465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.007539386795824092</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02617278210421218</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0006209264830712976</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01578031958897385</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03013317290628919</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03399842319218517</v>
+      </c>
+      <c r="H49">
+        <v>0.01814787368532745</v>
+      </c>
+      <c r="I49">
+        <v>0.06491899655667596</v>
+      </c>
+      <c r="J49">
+        <v>0.02165823643627537</v>
+      </c>
+      <c r="K49">
+        <v>-0.02886482615679576</v>
+      </c>
+      <c r="L49">
+        <v>0.004273808999042395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.001958913985848461</v>
+        <v>0.01360628767269427</v>
       </c>
       <c r="C50">
-        <v>-0.07405018257548084</v>
+        <v>0.08000094914018063</v>
       </c>
       <c r="D50">
-        <v>0.0273956912574291</v>
+        <v>0.02916615831323449</v>
       </c>
       <c r="E50">
-        <v>0.002144151625462663</v>
+        <v>1.06307676061132e-05</v>
       </c>
       <c r="F50">
-        <v>0.01023725451904287</v>
+        <v>-0.002173365604267111</v>
       </c>
       <c r="G50">
-        <v>0.00429686341405386</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01495219552500189</v>
+      </c>
+      <c r="H50">
+        <v>-0.05995329322592523</v>
+      </c>
+      <c r="I50">
+        <v>-0.003710943261621803</v>
+      </c>
+      <c r="J50">
+        <v>-0.04298545782598281</v>
+      </c>
+      <c r="K50">
+        <v>0.03639772185192471</v>
+      </c>
+      <c r="L50">
+        <v>0.02579948707895041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.003032336219851933</v>
+        <v>-0.006828138294324878</v>
       </c>
       <c r="C51">
-        <v>-0.07594480879507888</v>
+        <v>0.03727659186975579</v>
       </c>
       <c r="D51">
-        <v>0.00251588776865899</v>
+        <v>0.02247330575998658</v>
       </c>
       <c r="E51">
-        <v>-0.0601388613524908</v>
+        <v>-0.02150332610122862</v>
       </c>
       <c r="F51">
-        <v>0.04985183706193698</v>
+        <v>-0.02302280458453726</v>
       </c>
       <c r="G51">
-        <v>0.01135020021046255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02644990313128604</v>
+      </c>
+      <c r="H51">
+        <v>-0.09621982459363485</v>
+      </c>
+      <c r="I51">
+        <v>0.03440199577874328</v>
+      </c>
+      <c r="J51">
+        <v>-0.01097169760421164</v>
+      </c>
+      <c r="K51">
+        <v>-0.1105133084581574</v>
+      </c>
+      <c r="L51">
+        <v>-0.02567221088899166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2676,177 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.04375423541009537</v>
+        <v>0.05816582582890206</v>
       </c>
       <c r="C53">
-        <v>-0.1360940860660897</v>
+        <v>0.1322949065451136</v>
       </c>
       <c r="D53">
-        <v>0.06234492988154662</v>
+        <v>0.05582865509984217</v>
       </c>
       <c r="E53">
-        <v>0.1307781631286544</v>
+        <v>0.01116186780550058</v>
       </c>
       <c r="F53">
-        <v>-0.05539442611238697</v>
+        <v>0.06926895429429701</v>
       </c>
       <c r="G53">
-        <v>-0.0292633259066673</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.0857399523015253</v>
+      </c>
+      <c r="H53">
+        <v>0.03467756591561507</v>
+      </c>
+      <c r="I53">
+        <v>0.0002566386079360306</v>
+      </c>
+      <c r="J53">
+        <v>-0.04544264501872695</v>
+      </c>
+      <c r="K53">
+        <v>0.02857943296611979</v>
+      </c>
+      <c r="L53">
+        <v>0.1009011624412945</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.005794786421483481</v>
+        <v>0.01903871882185708</v>
       </c>
       <c r="C54">
-        <v>-0.07468080671500608</v>
+        <v>0.07877106593514195</v>
       </c>
       <c r="D54">
-        <v>0.008079028961766996</v>
+        <v>0.01226596753016182</v>
       </c>
       <c r="E54">
-        <v>0.02504633028152552</v>
+        <v>-0.004187430443844398</v>
       </c>
       <c r="F54">
-        <v>-0.008503700795493736</v>
+        <v>0.02586156363482417</v>
       </c>
       <c r="G54">
-        <v>0.02207015741560748</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.01328605614794485</v>
+      </c>
+      <c r="H54">
+        <v>-0.05492643206328682</v>
+      </c>
+      <c r="I54">
+        <v>0.02668029099699841</v>
+      </c>
+      <c r="J54">
+        <v>0.02386479122319477</v>
+      </c>
+      <c r="K54">
+        <v>0.0105442627560409</v>
+      </c>
+      <c r="L54">
+        <v>-0.009842597483208005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.02556938916203347</v>
+        <v>0.03344568592978425</v>
       </c>
       <c r="C55">
-        <v>-0.09674167209998545</v>
+        <v>0.08851805802869803</v>
       </c>
       <c r="D55">
-        <v>0.06565800619446417</v>
+        <v>0.0542976817776914</v>
       </c>
       <c r="E55">
-        <v>0.06194836126960159</v>
+        <v>0.01672637283037838</v>
       </c>
       <c r="F55">
-        <v>-0.04458228239969233</v>
+        <v>0.05084843358186274</v>
       </c>
       <c r="G55">
-        <v>0.006071060252840117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.04273951538846031</v>
+      </c>
+      <c r="H55">
+        <v>0.01770496846871527</v>
+      </c>
+      <c r="I55">
+        <v>0.01691749077064015</v>
+      </c>
+      <c r="J55">
+        <v>0.002199445493659719</v>
+      </c>
+      <c r="K55">
+        <v>0.01481162290310495</v>
+      </c>
+      <c r="L55">
+        <v>0.05668647818010281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.02777412802276041</v>
+        <v>0.0455849323729569</v>
       </c>
       <c r="C56">
-        <v>-0.1706193652979389</v>
+        <v>0.1532393860761454</v>
       </c>
       <c r="D56">
-        <v>0.05496753062481769</v>
+        <v>0.07796946988797841</v>
       </c>
       <c r="E56">
-        <v>0.1197179884453704</v>
+        <v>-0.001302569848083478</v>
       </c>
       <c r="F56">
-        <v>-0.09765684500967231</v>
+        <v>0.09454186456588783</v>
       </c>
       <c r="G56">
-        <v>-0.06152833448218589</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1552900721055167</v>
+      </c>
+      <c r="H56">
+        <v>0.05310517724370827</v>
+      </c>
+      <c r="I56">
+        <v>0.01884393763282248</v>
+      </c>
+      <c r="J56">
+        <v>-0.03559206314568212</v>
+      </c>
+      <c r="K56">
+        <v>-0.01633694104237677</v>
+      </c>
+      <c r="L56">
+        <v>0.0595890210594102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2866,481 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.03649377967720768</v>
+        <v>0.02147292759224676</v>
       </c>
       <c r="C58">
-        <v>-0.2703652291531217</v>
+        <v>0.1763601650459878</v>
       </c>
       <c r="D58">
-        <v>-0.06291842188802894</v>
+        <v>0.03785597101146217</v>
       </c>
       <c r="E58">
-        <v>-0.2287465255511539</v>
+        <v>-0.05258542109234338</v>
       </c>
       <c r="F58">
-        <v>0.2873317364478862</v>
+        <v>-0.323936698900352</v>
       </c>
       <c r="G58">
-        <v>-0.238887287152314</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.06202806123912172</v>
+      </c>
+      <c r="H58">
+        <v>-0.04720262650670524</v>
+      </c>
+      <c r="I58">
+        <v>-0.08283291998227336</v>
+      </c>
+      <c r="J58">
+        <v>-0.0368740112211671</v>
+      </c>
+      <c r="K58">
+        <v>-0.4292086262898779</v>
+      </c>
+      <c r="L58">
+        <v>-0.1802172810853049</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.2798411425450481</v>
+        <v>0.2882325093772028</v>
       </c>
       <c r="C59">
-        <v>0.00423747094960641</v>
+        <v>-0.04346598592386952</v>
       </c>
       <c r="D59">
-        <v>-0.03358535823296282</v>
+        <v>-0.006503501061591737</v>
       </c>
       <c r="E59">
-        <v>-0.05304947983411532</v>
+        <v>-0.03689003513066891</v>
       </c>
       <c r="F59">
-        <v>-0.04532307558990425</v>
+        <v>-0.03659655618964606</v>
       </c>
       <c r="G59">
-        <v>0.02506020852293854</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.002477749224724192</v>
+      </c>
+      <c r="H59">
+        <v>0.02078070270905476</v>
+      </c>
+      <c r="I59">
+        <v>-0.01056398836427568</v>
+      </c>
+      <c r="J59">
+        <v>-0.02035088464158391</v>
+      </c>
+      <c r="K59">
+        <v>0.02546312978226108</v>
+      </c>
+      <c r="L59">
+        <v>0.02446490117721924</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.1136011368463244</v>
+        <v>0.1488772606683947</v>
       </c>
       <c r="C60">
-        <v>-0.1541626919603562</v>
+        <v>0.1583445232124975</v>
       </c>
       <c r="D60">
-        <v>0.07416080202440391</v>
+        <v>0.04495951654238669</v>
       </c>
       <c r="E60">
-        <v>0.05276698699853984</v>
+        <v>-0.003042068520574112</v>
       </c>
       <c r="F60">
-        <v>-0.01179516065222498</v>
+        <v>0.1236272306158935</v>
       </c>
       <c r="G60">
-        <v>0.3046102287382242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2599014369971896</v>
+      </c>
+      <c r="H60">
+        <v>0.2243206451413526</v>
+      </c>
+      <c r="I60">
+        <v>-0.002789086482527588</v>
+      </c>
+      <c r="J60">
+        <v>0.03083848721839718</v>
+      </c>
+      <c r="K60">
+        <v>-0.02931218605023915</v>
+      </c>
+      <c r="L60">
+        <v>-0.1066155090386266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.002079823387101167</v>
+        <v>0.01984094550563403</v>
       </c>
       <c r="C61">
-        <v>-0.08783000501598415</v>
+        <v>0.09721481996895648</v>
       </c>
       <c r="D61">
-        <v>0.04755174863018813</v>
+        <v>0.05088325333606804</v>
       </c>
       <c r="E61">
-        <v>0.02344965665629637</v>
+        <v>-0.0003757846850352401</v>
       </c>
       <c r="F61">
-        <v>9.544882738895775e-05</v>
+        <v>0.03337343115913979</v>
       </c>
       <c r="G61">
-        <v>0.07186218668654717</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02152035772149893</v>
+      </c>
+      <c r="H61">
+        <v>-0.06348294327933547</v>
+      </c>
+      <c r="I61">
+        <v>0.03821556387066517</v>
+      </c>
+      <c r="J61">
+        <v>0.01789106389518904</v>
+      </c>
+      <c r="K61">
+        <v>0.02058229565759331</v>
+      </c>
+      <c r="L61">
+        <v>0.04932094645266852</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002084038525167072</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01303428118219338</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003519948711468921</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.001065916801683411</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01470423113734716</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.0156037253033037</v>
+      </c>
+      <c r="H62">
+        <v>-0.0081788458173744</v>
+      </c>
+      <c r="I62">
+        <v>0.05121005352091138</v>
+      </c>
+      <c r="J62">
+        <v>-0.02839383479990362</v>
+      </c>
+      <c r="K62">
+        <v>0.007458416629963693</v>
+      </c>
+      <c r="L62">
+        <v>-0.06155676726160021</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.001145563898486511</v>
+        <v>0.02685716267942514</v>
       </c>
       <c r="C63">
-        <v>-0.07358752756597728</v>
+        <v>0.07062042698337105</v>
       </c>
       <c r="D63">
-        <v>0.03876795952395239</v>
+        <v>0.05891790274167328</v>
       </c>
       <c r="E63">
-        <v>0.03028253969030124</v>
+        <v>-0.001388208841335251</v>
       </c>
       <c r="F63">
-        <v>0.005809135139026438</v>
+        <v>0.02381798392568707</v>
       </c>
       <c r="G63">
-        <v>0.03080539816008409</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.001808488305508132</v>
+      </c>
+      <c r="H63">
+        <v>-0.06272464114059696</v>
+      </c>
+      <c r="I63">
+        <v>0.04134595269568007</v>
+      </c>
+      <c r="J63">
+        <v>-0.003761893239262995</v>
+      </c>
+      <c r="K63">
+        <v>0.01970598274308489</v>
+      </c>
+      <c r="L63">
+        <v>0.05304413503518982</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.00697308299887906</v>
+        <v>0.01518948124121474</v>
       </c>
       <c r="C64">
-        <v>-0.08439805809779925</v>
+        <v>0.09060213687758342</v>
       </c>
       <c r="D64">
-        <v>0.06476713202644895</v>
+        <v>0.03328066970498756</v>
       </c>
       <c r="E64">
-        <v>-0.01316377528727666</v>
+        <v>0.01889604389201643</v>
       </c>
       <c r="F64">
-        <v>0.02266517841248981</v>
+        <v>-0.03655037605846241</v>
       </c>
       <c r="G64">
-        <v>0.05672807394801831</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06724221583883698</v>
+      </c>
+      <c r="H64">
+        <v>-0.05285929042532189</v>
+      </c>
+      <c r="I64">
+        <v>0.04350384435459915</v>
+      </c>
+      <c r="J64">
+        <v>0.01736662985177987</v>
+      </c>
+      <c r="K64">
+        <v>0.02364014354797408</v>
+      </c>
+      <c r="L64">
+        <v>0.1177265904572277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.01276462364494114</v>
+        <v>0.02979679818049393</v>
       </c>
       <c r="C65">
-        <v>-0.07428199936673477</v>
+        <v>0.09405504773255109</v>
       </c>
       <c r="D65">
-        <v>0.02750540291182342</v>
+        <v>0.01874767565580926</v>
       </c>
       <c r="E65">
-        <v>-0.03727031105743564</v>
+        <v>0.02529943792729794</v>
       </c>
       <c r="F65">
-        <v>0.0463817453087279</v>
+        <v>-0.01384258197874882</v>
       </c>
       <c r="G65">
-        <v>0.02111553966108297</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.09957614066975276</v>
+      </c>
+      <c r="H65">
+        <v>-0.01097364145915844</v>
+      </c>
+      <c r="I65">
+        <v>-0.01547739653677241</v>
+      </c>
+      <c r="J65">
+        <v>0.08203818055999143</v>
+      </c>
+      <c r="K65">
+        <v>-0.1021566520820278</v>
+      </c>
+      <c r="L65">
+        <v>0.0512449151965512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.002878918032729883</v>
+        <v>0.01267017379234664</v>
       </c>
       <c r="C66">
-        <v>-0.1710483342496731</v>
+        <v>0.1643090242407292</v>
       </c>
       <c r="D66">
-        <v>0.02174848631192743</v>
+        <v>0.04589432548888735</v>
       </c>
       <c r="E66">
-        <v>-0.05136878859816843</v>
+        <v>-0.01946993101156787</v>
       </c>
       <c r="F66">
-        <v>0.02429886101431608</v>
+        <v>-0.004059020913193907</v>
       </c>
       <c r="G66">
-        <v>0.08809271292178629</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.02244919121427505</v>
+      </c>
+      <c r="H66">
+        <v>-0.06149639423963332</v>
+      </c>
+      <c r="I66">
+        <v>0.03788514226865138</v>
+      </c>
+      <c r="J66">
+        <v>0.03948968833158332</v>
+      </c>
+      <c r="K66">
+        <v>-0.02297741699632524</v>
+      </c>
+      <c r="L66">
+        <v>0.04075183176457089</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.0283860133199006</v>
+        <v>0.02088251947614911</v>
       </c>
       <c r="C67">
-        <v>-0.03852731491677912</v>
+        <v>0.05359933497300014</v>
       </c>
       <c r="D67">
-        <v>0.06289584148451549</v>
+        <v>0.04356420937021056</v>
       </c>
       <c r="E67">
-        <v>0.04072385069713514</v>
+        <v>0.03180388101779939</v>
       </c>
       <c r="F67">
-        <v>0.003021981555679887</v>
+        <v>0.01623472650685488</v>
       </c>
       <c r="G67">
-        <v>0.01740537893781131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01660264563805164</v>
+      </c>
+      <c r="H67">
+        <v>-0.06463704774755102</v>
+      </c>
+      <c r="I67">
+        <v>-0.04429851160818687</v>
+      </c>
+      <c r="J67">
+        <v>-0.03833230625717305</v>
+      </c>
+      <c r="K67">
+        <v>0.06868629079837882</v>
+      </c>
+      <c r="L67">
+        <v>0.09375038137097311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.2897305843583179</v>
+        <v>0.2951657672247239</v>
       </c>
       <c r="C68">
-        <v>0.04053671419730145</v>
+        <v>-0.06969598234532261</v>
       </c>
       <c r="D68">
-        <v>-0.02835165077633738</v>
+        <v>-0.02629539252070765</v>
       </c>
       <c r="E68">
-        <v>-0.02955963274865396</v>
+        <v>-0.01481541811953248</v>
       </c>
       <c r="F68">
-        <v>0.008521423850510999</v>
+        <v>-0.03134295520502139</v>
       </c>
       <c r="G68">
-        <v>-0.01564605709346019</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02049399450009389</v>
+      </c>
+      <c r="H68">
+        <v>-0.02834025304070485</v>
+      </c>
+      <c r="I68">
+        <v>0.04893984435489564</v>
+      </c>
+      <c r="J68">
+        <v>-0.06798272795973262</v>
+      </c>
+      <c r="K68">
+        <v>0.001020140026946393</v>
+      </c>
+      <c r="L68">
+        <v>-0.007911934662391233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.01268369964923506</v>
+        <v>0.007587249646753739</v>
       </c>
       <c r="C69">
-        <v>-0.05766946789001751</v>
+        <v>0.05274925737937372</v>
       </c>
       <c r="D69">
-        <v>0.04370265349549299</v>
+        <v>0.02262614138959296</v>
       </c>
       <c r="E69">
-        <v>0.01973128487685923</v>
+        <v>-0.0006253530663285589</v>
       </c>
       <c r="F69">
-        <v>0.0005933431205684108</v>
+        <v>0.01180347904609033</v>
       </c>
       <c r="G69">
-        <v>0.01856783233250249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02149720059398058</v>
+      </c>
+      <c r="H69">
+        <v>-0.04827067666174063</v>
+      </c>
+      <c r="I69">
+        <v>-0.006383365340200035</v>
+      </c>
+      <c r="J69">
+        <v>-0.01562767435718567</v>
+      </c>
+      <c r="K69">
+        <v>0.01544885371413186</v>
+      </c>
+      <c r="L69">
+        <v>0.04316731528593115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3360,975 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.2803185543704174</v>
+        <v>0.2766294193091442</v>
       </c>
       <c r="C71">
-        <v>0.0498070847096193</v>
+        <v>-0.07510315179378745</v>
       </c>
       <c r="D71">
-        <v>-0.03568536796651647</v>
+        <v>-0.02513547390009338</v>
       </c>
       <c r="E71">
-        <v>-0.01999529268514911</v>
+        <v>-0.003833909204187724</v>
       </c>
       <c r="F71">
-        <v>0.02326565434806295</v>
+        <v>-0.05834422063793183</v>
       </c>
       <c r="G71">
-        <v>-0.003366226943904408</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02473612270544572</v>
+      </c>
+      <c r="H71">
+        <v>-0.05173299219120552</v>
+      </c>
+      <c r="I71">
+        <v>-0.0172486068288721</v>
+      </c>
+      <c r="J71">
+        <v>-0.131218129164928</v>
+      </c>
+      <c r="K71">
+        <v>-0.02517416173298621</v>
+      </c>
+      <c r="L71">
+        <v>0.03701033419843264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.0307834686512617</v>
+        <v>0.05383529945288201</v>
       </c>
       <c r="C72">
-        <v>-0.1505966046763273</v>
+        <v>0.1409822246143889</v>
       </c>
       <c r="D72">
-        <v>0.06288910648158302</v>
+        <v>0.04424807992318532</v>
       </c>
       <c r="E72">
-        <v>-0.0149617568019853</v>
+        <v>0.004877162224647241</v>
       </c>
       <c r="F72">
-        <v>0.1063617568364448</v>
+        <v>0.0299698902142585</v>
       </c>
       <c r="G72">
-        <v>0.09485832808965546</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02630997093803277</v>
+      </c>
+      <c r="H72">
+        <v>-0.03005548256385562</v>
+      </c>
+      <c r="I72">
+        <v>0.03798849762028807</v>
+      </c>
+      <c r="J72">
+        <v>0.1113859078337106</v>
+      </c>
+      <c r="K72">
+        <v>-0.06519828145786746</v>
+      </c>
+      <c r="L72">
+        <v>0.04717244234971069</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.07102739402898151</v>
+        <v>0.1507389529055326</v>
       </c>
       <c r="C73">
-        <v>-0.1348098377305206</v>
+        <v>0.196864160132402</v>
       </c>
       <c r="D73">
-        <v>0.1162607179685459</v>
+        <v>0.08150691391458235</v>
       </c>
       <c r="E73">
-        <v>0.1334535470422874</v>
+        <v>0.05599802571698696</v>
       </c>
       <c r="F73">
-        <v>0.02652622222219879</v>
+        <v>0.2362149433444641</v>
       </c>
       <c r="G73">
-        <v>0.4150330080002421</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3921926537694009</v>
+      </c>
+      <c r="H73">
+        <v>0.2969082983932882</v>
+      </c>
+      <c r="I73">
+        <v>-0.08521731267067026</v>
+      </c>
+      <c r="J73">
+        <v>-0.05196355024736179</v>
+      </c>
+      <c r="K73">
+        <v>-0.06531397745428175</v>
+      </c>
+      <c r="L73">
+        <v>-0.01187399673433081</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.0183595515772925</v>
+        <v>0.04092520228600294</v>
       </c>
       <c r="C74">
-        <v>-0.09464972845657448</v>
+        <v>0.1032518662083117</v>
       </c>
       <c r="D74">
-        <v>0.06947859090231227</v>
+        <v>0.04727220814423739</v>
       </c>
       <c r="E74">
-        <v>0.07926112406668158</v>
+        <v>0.02026764941428452</v>
       </c>
       <c r="F74">
-        <v>-0.05266213305179794</v>
+        <v>0.04174012124490534</v>
       </c>
       <c r="G74">
-        <v>-0.0167851757521367</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.04970099585844127</v>
+      </c>
+      <c r="H74">
+        <v>0.003761430100387117</v>
+      </c>
+      <c r="I74">
+        <v>0.04846537442956757</v>
+      </c>
+      <c r="J74">
+        <v>-0.0232178760068937</v>
+      </c>
+      <c r="K74">
+        <v>-0.0173123785870901</v>
+      </c>
+      <c r="L74">
+        <v>0.05558764932523594</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.06217479577010788</v>
+        <v>0.06361888081902763</v>
       </c>
       <c r="C75">
-        <v>-0.1416001403365274</v>
+        <v>0.1649149360548729</v>
       </c>
       <c r="D75">
-        <v>0.08430996905103863</v>
+        <v>0.08254212717030236</v>
       </c>
       <c r="E75">
-        <v>0.1843841205620602</v>
+        <v>0.08499812277005153</v>
       </c>
       <c r="F75">
-        <v>-0.08747189251383652</v>
+        <v>0.09729798071511359</v>
       </c>
       <c r="G75">
-        <v>-0.1513939132579039</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2250819878725287</v>
+      </c>
+      <c r="H75">
+        <v>0.04462241633874941</v>
+      </c>
+      <c r="I75">
+        <v>-0.009238813171548789</v>
+      </c>
+      <c r="J75">
+        <v>-0.1348334369560885</v>
+      </c>
+      <c r="K75">
+        <v>0.08796811047212487</v>
+      </c>
+      <c r="L75">
+        <v>0.06872124746473061</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.02651790770933344</v>
+        <v>0.04280453557977758</v>
       </c>
       <c r="C76">
-        <v>-0.1152139954591247</v>
+        <v>0.1243389002538302</v>
       </c>
       <c r="D76">
-        <v>0.05814668490479654</v>
+        <v>0.07191304184464439</v>
       </c>
       <c r="E76">
-        <v>0.09609941144069524</v>
+        <v>0.02187677453418685</v>
       </c>
       <c r="F76">
-        <v>-0.08988524395494422</v>
+        <v>0.08036335008014499</v>
       </c>
       <c r="G76">
-        <v>-0.01093732361353139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.07987534235434805</v>
+      </c>
+      <c r="H76">
+        <v>0.02031811629868688</v>
+      </c>
+      <c r="I76">
+        <v>0.06818589309475064</v>
+      </c>
+      <c r="J76">
+        <v>-0.02386488279009632</v>
+      </c>
+      <c r="K76">
+        <v>0.03627481344884505</v>
+      </c>
+      <c r="L76">
+        <v>0.1198151213150167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.07258107707973242</v>
+        <v>0.04673957329584977</v>
       </c>
       <c r="C77">
-        <v>-0.3040699124908219</v>
+        <v>0.3882997016840787</v>
       </c>
       <c r="D77">
-        <v>-0.8613417217579341</v>
+        <v>-0.9049660148066643</v>
       </c>
       <c r="E77">
-        <v>0.3031199905408925</v>
+        <v>0.05974831739722218</v>
       </c>
       <c r="F77">
-        <v>-0.0188956051739008</v>
+        <v>0.07314533774591478</v>
       </c>
       <c r="G77">
-        <v>0.05677199088248795</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03508954937494103</v>
+      </c>
+      <c r="H77">
+        <v>-0.05182777945581245</v>
+      </c>
+      <c r="I77">
+        <v>0.02859154155788741</v>
+      </c>
+      <c r="J77">
+        <v>-0.01267245483251872</v>
+      </c>
+      <c r="K77">
+        <v>0.001033511026736204</v>
+      </c>
+      <c r="L77">
+        <v>-0.009256124065576344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.02967406780516429</v>
+        <v>0.03462021042346616</v>
       </c>
       <c r="C78">
-        <v>-0.1453202542174072</v>
+        <v>0.1145926914449944</v>
       </c>
       <c r="D78">
-        <v>0.09648866511336593</v>
+        <v>0.09698088008300626</v>
       </c>
       <c r="E78">
-        <v>-0.07101829406717308</v>
+        <v>-0.04242030154241849</v>
       </c>
       <c r="F78">
-        <v>-0.09890870130254364</v>
+        <v>0.009793068045696884</v>
       </c>
       <c r="G78">
-        <v>-0.02634630840943595</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1201991073009518</v>
+      </c>
+      <c r="H78">
+        <v>-0.04181715492382583</v>
+      </c>
+      <c r="I78">
+        <v>-0.0008636367196556486</v>
+      </c>
+      <c r="J78">
+        <v>0.05998960327662894</v>
+      </c>
+      <c r="K78">
+        <v>-0.435713517855917</v>
+      </c>
+      <c r="L78">
+        <v>-0.04501970482193308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.03902718170401905</v>
+        <v>0.05645145471200261</v>
       </c>
       <c r="C79">
-        <v>-0.1679863072789525</v>
+        <v>0.1400220573041351</v>
       </c>
       <c r="D79">
-        <v>0.1101545801918869</v>
+        <v>0.06809449359168097</v>
       </c>
       <c r="E79">
-        <v>0.1277696678659049</v>
+        <v>0.01223289275959448</v>
       </c>
       <c r="F79">
-        <v>-0.1368475507804595</v>
+        <v>0.06274914000956928</v>
       </c>
       <c r="G79">
-        <v>-0.1715499522601387</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2390639458095836</v>
+      </c>
+      <c r="H79">
+        <v>0.01479481260319696</v>
+      </c>
+      <c r="I79">
+        <v>0.003952594202154264</v>
+      </c>
+      <c r="J79">
+        <v>-0.1015025092498327</v>
+      </c>
+      <c r="K79">
+        <v>-0.04485622451059725</v>
+      </c>
+      <c r="L79">
+        <v>0.06625783991889303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.0112483822715491</v>
+        <v>0.02052318042408533</v>
       </c>
       <c r="C80">
-        <v>-0.04486291664601873</v>
+        <v>0.04881207822096103</v>
       </c>
       <c r="D80">
-        <v>0.05074630593823553</v>
+        <v>0.03832978200427786</v>
       </c>
       <c r="E80">
-        <v>-0.006411200854916179</v>
+        <v>-0.05550493648070083</v>
       </c>
       <c r="F80">
-        <v>-0.03241759555110246</v>
+        <v>-0.008448407061160977</v>
       </c>
       <c r="G80">
-        <v>-0.004944819895982075</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.0594099568750242</v>
+      </c>
+      <c r="H80">
+        <v>0.02707023578307133</v>
+      </c>
+      <c r="I80">
+        <v>-0.02122855563477181</v>
+      </c>
+      <c r="J80">
+        <v>-0.03158036422114843</v>
+      </c>
+      <c r="K80">
+        <v>0.07899942897027518</v>
+      </c>
+      <c r="L80">
+        <v>0.0774413489783897</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.009630408302010075</v>
+        <v>0.01640573071496192</v>
       </c>
       <c r="C81">
-        <v>-0.08573948589871984</v>
+        <v>0.1004410914894818</v>
       </c>
       <c r="D81">
-        <v>0.07890288324501191</v>
+        <v>0.05482549349957028</v>
       </c>
       <c r="E81">
-        <v>0.1023947884562652</v>
+        <v>0.002728121588451637</v>
       </c>
       <c r="F81">
-        <v>-0.09571535332125293</v>
+        <v>0.05143658969091885</v>
       </c>
       <c r="G81">
-        <v>-0.04428652049239468</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1180276895447781</v>
+      </c>
+      <c r="H81">
+        <v>-0.03596201093871593</v>
+      </c>
+      <c r="I81">
+        <v>0.01774584096927709</v>
+      </c>
+      <c r="J81">
+        <v>-0.06477587997036428</v>
+      </c>
+      <c r="K81">
+        <v>0.03474428480608811</v>
+      </c>
+      <c r="L81">
+        <v>0.08510350191709483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.02806895897036076</v>
+        <v>0.04637201848006408</v>
       </c>
       <c r="C82">
-        <v>-0.09004341196732614</v>
+        <v>0.1042189610715773</v>
       </c>
       <c r="D82">
-        <v>0.07268955769626903</v>
+        <v>0.06557299503163834</v>
       </c>
       <c r="E82">
-        <v>0.1155959528064363</v>
+        <v>0.01536161003866883</v>
       </c>
       <c r="F82">
-        <v>-0.07016139649864803</v>
+        <v>0.07372393310660397</v>
       </c>
       <c r="G82">
-        <v>-0.01343906017375575</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.09492759797011957</v>
+      </c>
+      <c r="H82">
+        <v>-0.0001786101485357686</v>
+      </c>
+      <c r="I82">
+        <v>0.03055419203719397</v>
+      </c>
+      <c r="J82">
+        <v>-0.03530282143659706</v>
+      </c>
+      <c r="K82">
+        <v>0.02050076108647308</v>
+      </c>
+      <c r="L82">
+        <v>0.1139889404731777</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.0002129289808134173</v>
+        <v>0.001367387574530199</v>
       </c>
       <c r="C83">
-        <v>-0.03637372481722705</v>
+        <v>-0.01226038730261116</v>
       </c>
       <c r="D83">
-        <v>-0.1535631464821478</v>
+        <v>-0.06077812704513934</v>
       </c>
       <c r="E83">
-        <v>-0.488453104507252</v>
+        <v>-0.9363438355211768</v>
       </c>
       <c r="F83">
-        <v>-0.7685892004106245</v>
+        <v>0.1936574569872115</v>
       </c>
       <c r="G83">
-        <v>0.1100180347426395</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05987066045482685</v>
+      </c>
+      <c r="H83">
+        <v>0.1158387749930074</v>
+      </c>
+      <c r="I83">
+        <v>0.05724382832644921</v>
+      </c>
+      <c r="J83">
+        <v>0.06222832778395875</v>
+      </c>
+      <c r="K83">
+        <v>-0.02477426187016417</v>
+      </c>
+      <c r="L83">
+        <v>0.09587597540267977</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.001791215205335081</v>
+        <v>-0.0009109005019530153</v>
       </c>
       <c r="C84">
-        <v>-0.0554985620326448</v>
+        <v>0.04418823251111567</v>
       </c>
       <c r="D84">
-        <v>0.03417177218909725</v>
+        <v>0.06168968256996871</v>
       </c>
       <c r="E84">
-        <v>-0.08073424975161062</v>
+        <v>-0.006236588556027525</v>
       </c>
       <c r="F84">
-        <v>0.1158629275514774</v>
+        <v>-0.09555042657716763</v>
       </c>
       <c r="G84">
-        <v>-0.08848797572767417</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.0375202030152873</v>
+      </c>
+      <c r="H84">
+        <v>-0.08562426983224483</v>
+      </c>
+      <c r="I84">
+        <v>0.1030279411913695</v>
+      </c>
+      <c r="J84">
+        <v>0.07963573800845881</v>
+      </c>
+      <c r="K84">
+        <v>0.04506112227203107</v>
+      </c>
+      <c r="L84">
+        <v>0.1249218497871762</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.01994408489556207</v>
+        <v>0.02968526399165351</v>
       </c>
       <c r="C85">
-        <v>-0.1331364582044204</v>
+        <v>0.1182757818301971</v>
       </c>
       <c r="D85">
-        <v>0.08591166458226614</v>
+        <v>0.08081635884436164</v>
       </c>
       <c r="E85">
-        <v>0.133774399497666</v>
+        <v>0.03468966838760229</v>
       </c>
       <c r="F85">
-        <v>-0.1388816845466002</v>
+        <v>0.1268328773884099</v>
       </c>
       <c r="G85">
-        <v>-0.1096813773319676</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2127187083362699</v>
+      </c>
+      <c r="H85">
+        <v>0.05410235900328204</v>
+      </c>
+      <c r="I85">
+        <v>0.07318432419258912</v>
+      </c>
+      <c r="J85">
+        <v>-0.1157231361830308</v>
+      </c>
+      <c r="K85">
+        <v>0.05352376091606337</v>
+      </c>
+      <c r="L85">
+        <v>0.1269848737177342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.01983073891960938</v>
+        <v>0.01590291099916523</v>
       </c>
       <c r="C86">
-        <v>-0.06819550503287394</v>
+        <v>0.08242144635877174</v>
       </c>
       <c r="D86">
-        <v>-0.03235528882171843</v>
+        <v>0.02526551765740426</v>
       </c>
       <c r="E86">
-        <v>-0.02343880750344691</v>
+        <v>-0.01840886244035737</v>
       </c>
       <c r="F86">
-        <v>0.07229147337420831</v>
+        <v>-0.08574891007419386</v>
       </c>
       <c r="G86">
-        <v>0.03046929691389297</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05075659592571741</v>
+      </c>
+      <c r="H86">
+        <v>-0.008134112329477274</v>
+      </c>
+      <c r="I86">
+        <v>-0.1834148899973733</v>
+      </c>
+      <c r="J86">
+        <v>-0.08624266486280642</v>
+      </c>
+      <c r="K86">
+        <v>-0.1452742079997477</v>
+      </c>
+      <c r="L86">
+        <v>0.08133287865943073</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.04003622224441758</v>
+        <v>0.02655235494233955</v>
       </c>
       <c r="C87">
-        <v>-0.1497136990548021</v>
+        <v>0.1191634380282122</v>
       </c>
       <c r="D87">
-        <v>0.02254276990884644</v>
+        <v>0.01843387640442489</v>
       </c>
       <c r="E87">
-        <v>-0.1068794496741065</v>
+        <v>-0.01310565039016912</v>
       </c>
       <c r="F87">
-        <v>0.02375221458843407</v>
+        <v>-0.06947487744594426</v>
       </c>
       <c r="G87">
-        <v>-0.02616151384404121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.008473277107698044</v>
+      </c>
+      <c r="H87">
+        <v>-0.04107604504999224</v>
+      </c>
+      <c r="I87">
+        <v>0.1265442625114101</v>
+      </c>
+      <c r="J87">
+        <v>0.03626299893243794</v>
+      </c>
+      <c r="K87">
+        <v>-0.08160908268929948</v>
+      </c>
+      <c r="L87">
+        <v>-0.03289454569143835</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.00616036974788539</v>
+        <v>0.03819060898848333</v>
       </c>
       <c r="C88">
-        <v>-0.03895901675685878</v>
+        <v>0.06393413414935561</v>
       </c>
       <c r="D88">
-        <v>0.0491828230900046</v>
+        <v>0.04217299239174564</v>
       </c>
       <c r="E88">
-        <v>0.06190951270885563</v>
+        <v>0.01570525865251251</v>
       </c>
       <c r="F88">
-        <v>0.001626425874542939</v>
+        <v>0.01906973702294269</v>
       </c>
       <c r="G88">
-        <v>0.01234497087675309</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02332216263679034</v>
+      </c>
+      <c r="H88">
+        <v>-0.008447603299056319</v>
+      </c>
+      <c r="I88">
+        <v>0.0121816019327761</v>
+      </c>
+      <c r="J88">
+        <v>-0.02470863636582219</v>
+      </c>
+      <c r="K88">
+        <v>0.09202075294537954</v>
+      </c>
+      <c r="L88">
+        <v>0.1123690881382613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.3863836507051453</v>
+        <v>0.3900482069553247</v>
       </c>
       <c r="C89">
-        <v>0.101129271852312</v>
+        <v>-0.116887039317697</v>
       </c>
       <c r="D89">
-        <v>0.1075137048689876</v>
+        <v>-0.03229830191498902</v>
       </c>
       <c r="E89">
-        <v>-0.08722210834156512</v>
+        <v>0.03443150768201177</v>
       </c>
       <c r="F89">
-        <v>0.03648135961951656</v>
+        <v>-0.07883484718706743</v>
       </c>
       <c r="G89">
-        <v>-0.08644190194101223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04603357142914248</v>
+      </c>
+      <c r="H89">
+        <v>-0.02708417907062409</v>
+      </c>
+      <c r="I89">
+        <v>0.2579011048696843</v>
+      </c>
+      <c r="J89">
+        <v>0.6869946989657754</v>
+      </c>
+      <c r="K89">
+        <v>-0.02500371162393351</v>
+      </c>
+      <c r="L89">
+        <v>0.04391071021922023</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.3052506045415424</v>
+        <v>0.3144902348523085</v>
       </c>
       <c r="C90">
-        <v>0.03762409385438147</v>
+        <v>-0.07624167610789392</v>
       </c>
       <c r="D90">
-        <v>-0.01776775623623868</v>
+        <v>-0.01833060435014243</v>
       </c>
       <c r="E90">
-        <v>-0.07213493666858067</v>
+        <v>-0.0291974290556188</v>
       </c>
       <c r="F90">
-        <v>-0.03222442543092403</v>
+        <v>-0.03210471933906627</v>
       </c>
       <c r="G90">
-        <v>0.03281703703203405</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01012350655780822</v>
+      </c>
+      <c r="H90">
+        <v>-0.01902759906420842</v>
+      </c>
+      <c r="I90">
+        <v>-0.02569110295729778</v>
+      </c>
+      <c r="J90">
+        <v>-0.08220547626028606</v>
+      </c>
+      <c r="K90">
+        <v>-0.0075246956510897</v>
+      </c>
+      <c r="L90">
+        <v>-0.02472099327320349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.03402295341848204</v>
+        <v>0.05269723875567639</v>
       </c>
       <c r="C91">
-        <v>-0.08696939613659559</v>
+        <v>0.08572788038631576</v>
       </c>
       <c r="D91">
-        <v>0.04639145395226006</v>
+        <v>0.04312650560259465</v>
       </c>
       <c r="E91">
-        <v>0.06976526958496507</v>
+        <v>-0.01275199088883648</v>
       </c>
       <c r="F91">
-        <v>-0.08062317281238245</v>
+        <v>0.0629738774188984</v>
       </c>
       <c r="G91">
-        <v>-0.04472327752441815</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.07844878476345357</v>
+      </c>
+      <c r="H91">
+        <v>0.03356118964261601</v>
+      </c>
+      <c r="I91">
+        <v>0.01598001472297</v>
+      </c>
+      <c r="J91">
+        <v>-0.004187165406801102</v>
+      </c>
+      <c r="K91">
+        <v>0.05187934098384596</v>
+      </c>
+      <c r="L91">
+        <v>0.03644285114897253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.384553544156896</v>
+        <v>0.3548806565774076</v>
       </c>
       <c r="C92">
-        <v>0.08753839413509117</v>
+        <v>-0.1193327425430286</v>
       </c>
       <c r="D92">
-        <v>-0.01266456020321431</v>
+        <v>-0.05329143750726487</v>
       </c>
       <c r="E92">
-        <v>0.02682099689899605</v>
+        <v>0.02693832692257026</v>
       </c>
       <c r="F92">
-        <v>0.09106636311218397</v>
+        <v>-0.05731874471465164</v>
       </c>
       <c r="G92">
-        <v>-0.0353744591128628</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0140737892506138</v>
+      </c>
+      <c r="H92">
+        <v>-0.06718975461025503</v>
+      </c>
+      <c r="I92">
+        <v>-0.07147579166903976</v>
+      </c>
+      <c r="J92">
+        <v>-0.1356466224270827</v>
+      </c>
+      <c r="K92">
+        <v>0.007761605636103709</v>
+      </c>
+      <c r="L92">
+        <v>-0.05065559581325506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.3004774205566504</v>
+        <v>0.3110115808801896</v>
       </c>
       <c r="C93">
-        <v>0.0856118940328052</v>
+        <v>-0.1119361040904375</v>
       </c>
       <c r="D93">
-        <v>0.008413586596812789</v>
+        <v>-0.00922248254814155</v>
       </c>
       <c r="E93">
-        <v>-0.06130160650857596</v>
+        <v>-0.01240872932285968</v>
       </c>
       <c r="F93">
-        <v>0.01559917241653329</v>
+        <v>-0.03667106161481092</v>
       </c>
       <c r="G93">
-        <v>-0.01719070560977412</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04063629687054232</v>
+      </c>
+      <c r="H93">
+        <v>-0.02920865952751585</v>
+      </c>
+      <c r="I93">
+        <v>-0.06587757248296545</v>
+      </c>
+      <c r="J93">
+        <v>-0.0854100317369841</v>
+      </c>
+      <c r="K93">
+        <v>-0.006172032627927974</v>
+      </c>
+      <c r="L93">
+        <v>0.04508160801628689</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.05098710561179536</v>
+        <v>0.07827359488447955</v>
       </c>
       <c r="C94">
-        <v>-0.2001774126539419</v>
+        <v>0.1644358885094344</v>
       </c>
       <c r="D94">
-        <v>0.1559445072850096</v>
+        <v>0.1028789583745886</v>
       </c>
       <c r="E94">
-        <v>0.2503393568093384</v>
+        <v>0.04813324029190694</v>
       </c>
       <c r="F94">
-        <v>-0.2553043375810184</v>
+        <v>0.1407548716062647</v>
       </c>
       <c r="G94">
-        <v>-0.5132456642436586</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.5283095969436793</v>
+      </c>
+      <c r="H94">
+        <v>0.2411368200132877</v>
+      </c>
+      <c r="I94">
+        <v>-0.05156314992903935</v>
+      </c>
+      <c r="J94">
+        <v>0.2253915394096085</v>
+      </c>
+      <c r="K94">
+        <v>0.1937764335277823</v>
+      </c>
+      <c r="L94">
+        <v>-0.5406386752855072</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.03592269771218071</v>
+        <v>0.0380338456984725</v>
       </c>
       <c r="C95">
-        <v>-0.1014453095264215</v>
+        <v>0.129431948385156</v>
       </c>
       <c r="D95">
-        <v>0.03035675309438099</v>
+        <v>0.05836722179446459</v>
       </c>
       <c r="E95">
-        <v>0.05083486404040273</v>
+        <v>0.04175198502511329</v>
       </c>
       <c r="F95">
-        <v>-0.08110733145136773</v>
+        <v>0.07359722322660973</v>
       </c>
       <c r="G95">
-        <v>0.1426761225921939</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04786809177617987</v>
+      </c>
+      <c r="H95">
+        <v>-0.07512198323871416</v>
+      </c>
+      <c r="I95">
+        <v>0.1860647296742264</v>
+      </c>
+      <c r="J95">
+        <v>0.09567122426313905</v>
+      </c>
+      <c r="K95">
+        <v>0.2059056127588054</v>
+      </c>
+      <c r="L95">
+        <v>0.1999301142023299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4348,139 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-8.756535415218882e-06</v>
+        <v>0.01153834689609269</v>
       </c>
       <c r="C97">
-        <v>-0.000786116937100177</v>
+        <v>0.01555552673308539</v>
       </c>
       <c r="D97">
-        <v>4.088923154108879e-05</v>
+        <v>-0.009934846371968465</v>
       </c>
       <c r="E97">
-        <v>-0.0005395498599320295</v>
+        <v>0.02733691263033552</v>
       </c>
       <c r="F97">
-        <v>0.001164529742630957</v>
+        <v>-0.0161899656994498</v>
       </c>
       <c r="G97">
-        <v>-0.00150809834791804</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.02744626731414907</v>
+      </c>
+      <c r="H97">
+        <v>-0.03815366283141795</v>
+      </c>
+      <c r="I97">
+        <v>-0.1112107349628</v>
+      </c>
+      <c r="J97">
+        <v>0.08105646831339146</v>
+      </c>
+      <c r="K97">
+        <v>0.01006186014337745</v>
+      </c>
+      <c r="L97">
+        <v>0.0463537029563291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.08918331474991606</v>
+        <v>0.1312741509766732</v>
       </c>
       <c r="C98">
-        <v>-0.1535408447190225</v>
+        <v>0.1594751378799252</v>
       </c>
       <c r="D98">
-        <v>0.122680804082056</v>
+        <v>0.08962351354914692</v>
       </c>
       <c r="E98">
-        <v>0.06808052122597638</v>
+        <v>0.04932394655731862</v>
       </c>
       <c r="F98">
-        <v>0.02462309817479957</v>
+        <v>0.2087948643333265</v>
       </c>
       <c r="G98">
-        <v>0.2816026463505241</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3370596765672474</v>
+      </c>
+      <c r="H98">
+        <v>0.3296009718718034</v>
+      </c>
+      <c r="I98">
+        <v>-0.1164246409251743</v>
+      </c>
+      <c r="J98">
+        <v>-0.05359960118803286</v>
+      </c>
+      <c r="K98">
+        <v>-0.08713475383389381</v>
+      </c>
+      <c r="L98">
+        <v>-0.2032051458468448</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01125503115969834</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.04068279263438516</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.003683119657578927</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.02661389214682664</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.0636608135748284</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.07432526237057095</v>
+      </c>
+      <c r="H99">
+        <v>-0.07480199403269508</v>
+      </c>
+      <c r="I99">
+        <v>-0.7922727530569588</v>
+      </c>
+      <c r="J99">
+        <v>0.3770766492807862</v>
+      </c>
+      <c r="K99">
+        <v>0.006591399306062739</v>
+      </c>
+      <c r="L99">
+        <v>0.2647917106675245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4500,101 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.007919639805639265</v>
+        <v>0.01373042352842284</v>
       </c>
       <c r="C101">
-        <v>-0.07379265982285815</v>
+        <v>0.08030361163114273</v>
       </c>
       <c r="D101">
-        <v>0.04002162227933196</v>
+        <v>0.05253977782440541</v>
       </c>
       <c r="E101">
-        <v>-0.03195907711883497</v>
+        <v>-0.05887394699945223</v>
       </c>
       <c r="F101">
-        <v>0.004005029324071458</v>
+        <v>0.01853349605605838</v>
       </c>
       <c r="G101">
-        <v>0.08984968905263337</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1048658168898482</v>
+      </c>
+      <c r="H101">
+        <v>-0.2973677913593531</v>
+      </c>
+      <c r="I101">
+        <v>-0.02905789194907977</v>
+      </c>
+      <c r="J101">
+        <v>0.05936676525143243</v>
+      </c>
+      <c r="K101">
+        <v>0.1522604271610556</v>
+      </c>
+      <c r="L101">
+        <v>-0.2883607006609866</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
-        <v>0.009398861598610976</v>
+        <v>0.003524263036383104</v>
       </c>
       <c r="C102">
-        <v>-0.02807215203213024</v>
+        <v>0.01077760041980361</v>
       </c>
       <c r="D102">
-        <v>0.006583524811091488</v>
+        <v>0.0004990946139543015</v>
       </c>
       <c r="E102">
-        <v>0.02257563487248248</v>
+        <v>-0.003551837646873943</v>
       </c>
       <c r="F102">
-        <v>-0.02963052065987083</v>
+        <v>0.008646614835153695</v>
       </c>
       <c r="G102">
-        <v>0.0004807224738373176</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.006795382264398647</v>
+      </c>
+      <c r="H102">
+        <v>-0.0006584629124995704</v>
+      </c>
+      <c r="I102">
+        <v>0.002493614702242486</v>
+      </c>
+      <c r="J102">
+        <v>0.01977852465531774</v>
+      </c>
+      <c r="K102">
+        <v>-0.004253380089353279</v>
+      </c>
+      <c r="L102">
+        <v>-0.02824890487953077</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
